--- a/medicine/Enfance/Les_Conquérants_de_l'impossible/Les_Conquérants_de_l'impossible.xlsx
+++ b/medicine/Enfance/Les_Conquérants_de_l'impossible/Les_Conquérants_de_l'impossible.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Conqu%C3%A9rants_de_l%27impossible</t>
+          <t>Les_Conquérants_de_l'impossible</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Conquérants de l'impossible est une série de 21 romans de science-fiction pour la jeunesse écrite par l'auteur belge Philippe Ébly, publiée en France de 1971 à 2009 dans la collection Bibliothèque verte des éditions Hachette puis aux Éditions Degliame (rééditions partielles).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Conqu%C3%A9rants_de_l%27impossible</t>
+          <t>Les_Conquérants_de_l'impossible</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Conqu%C3%A9rants_de_l%27impossible</t>
+          <t>Les_Conquérants_de_l'impossible</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,15 +554,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Serge Daspremont : un jeune parisien curieux et aventureux.
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Serge Daspremont : un jeune parisien curieux et aventureux.
 Xolotl (Daspremont) : un jeune indien nahua du Mexique, adopté à l'âge de quinze ans par le père de Serge.
-Thibaut de Châlus : un jeune noble en provenance du XIIe siècle. Il porte le nom de Châlus, ville du Limousin qui existe réellement.
-Autres personnages
-Marc et Raoul Forestier : deux frères, fils d'un médecin. Ils participeront aux trois premières aventures.
-Souhi : une jeune fille en provenance de l'an 4000 rencontrée dans La Grande Peur de l'an 2117 et qui intègre l'équipe plus tard.
-Les commanditaires des aventures
-Science-fiction oblige, les commanditaires sont essentiellement des scientifiques de haute volée, capables d'inventions extraordinaires. À plusieurs reprises, Philippe Ébly en fait des amis ou des connaissances professionnelles de Jacques Daspremont, le père de Serge, lui-même scientifique de haut niveau (polytechnicien) et inventeur de l'autinios, un métal qui a la propriété de transporter dans le temps celui qui le porte. Parmi les commanditaires, on peut citer :
+Thibaut de Châlus : un jeune noble en provenance du XIIe siècle. Il porte le nom de Châlus, ville du Limousin qui existe réellement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres personnages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marc et Raoul Forestier : deux frères, fils d'un médecin. Ils participeront aux trois premières aventures.
+Souhi : une jeune fille en provenance de l'an 4000 rencontrée dans La Grande Peur de l'an 2117 et qui intègre l'équipe plus tard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les commanditaires des aventures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Science-fiction oblige, les commanditaires sont essentiellement des scientifiques de haute volée, capables d'inventions extraordinaires. À plusieurs reprises, Philippe Ébly en fait des amis ou des connaissances professionnelles de Jacques Daspremont, le père de Serge, lui-même scientifique de haut niveau (polytechnicien) et inventeur de l'autinios, un métal qui a la propriété de transporter dans le temps celui qui le porte. Parmi les commanditaires, on peut citer :
 Le professeur Auvernaux : universitaire enseignant à la Sorbonne. À plusieurs reprises, il envoie dans le temps les Conquérants grâce à l'autinios ; il est aussi le découvreur des « tunnels temporels » permettant des voyages dans le temps beaucoup plus lointains.
 Le professeur Lorenzo : universitaire italien qui découvre les propriétés de l'autinios. C'est également le concepteur de la soucoupe volante qui emmène les Conquérants sur Mars.
 Le professeur Omegna : autre universitaire italien ; il remplace son confrère et collègue Lorenzo lors de l'aventure dans le Milan de Léonard de Vinci.
@@ -559,56 +646,337 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_Conqu%C3%A9rants_de_l%27impossible</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Thèmes de la série</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thème principal est le voyage dans le temps, mais d'autres thèmes de science-fiction sont également abordés : robots humanoïdes, hibernation, contamination radioactive d'une partie de la Terre, exploration spatiale, pouvoirs mentaux, mondes virtuels ou parallèles, mutants. D’autres volumes de la série ont pour sujet la frontière du fantasmagorique et de la mythologie tel le mythe grec de l'Atlantide ou bien « la ville dissimulée au cœur d'un volcan ou d'une montagne », en référence à l'Aggartha, cité mystérieuse de la Tradition Primordiale explicitée par René Guénon.
-Le voyage dans le temps
-Principal thème de la série, le voyage dans le temps est traité de diverses manières par Philippe Ébly. En plus de permettre l'introduction d'une dimension historique (quand les Conquérants partent dans le passé) ou prédictive (quand ils partent dans le futur), le voyage dans le temps amène souvent l'auteur à aborder les paradoxes spatiotemporels
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le voyage dans le temps</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Principal thème de la série, le voyage dans le temps est traité de diverses manières par Philippe Ébly. En plus de permettre l'introduction d'une dimension historique (quand les Conquérants partent dans le passé) ou prédictive (quand ils partent dans le futur), le voyage dans le temps amène souvent l'auteur à aborder les paradoxes spatiotemporels
 Le mode du voyage dans le temps n'est pas toujours le même :
 Tout d'abord, il y a un métal, l'autinios, sous forme de gourmettes à l'origine, puis de ceintures, plus discrètes car dissimulées sous les vêtements. C'est un alliage de quatre éléments chimiques dont les symboles assemblés ont donné le nom (Au-Ti-Ni-Os : or, titane, nickel, osmium), même si les proportions utilisées restent secrètes. L'alliage possède la particularité de voyager dans le temps quand il est soumis à un champ magnétique. Découverte par hasard dans L'Éclair qui effaçait tout, cette propriété est utilisée dans plusieurs autres romans de la série.
 Ensuite, il y a les mystérieux « tunnels temporels » qui peuvent être empruntés par des « glisseurs temporels ». Ils peuvent projeter les aventuriers 5 000 ans dans le passé ou le futur mais - inconvénient certain - 5000 ans tout juste, pas plus et pas moins. « C'est à prendre ou à laisser » déclare le Professeur Auvernaux dans La Voûte invisible.
 Enfin, on peut associer au thème du voyage temporel trois autres éléments :
 Le « Chrono-régresseur » : un produit chimique qui fait revivre dans une personne, celui ou celle de ses ancêtres qui a la plus forte personnalité de la lignée (il apparait dans Le Navire qui remontait le temps).
 L'hibernation : elle ralentit le vieillissement dans Celui qui revenait de loin.
-Le titane colloïdal : il accélère l'écoulement du temps dans Le Matin des dinosaures.
-Les robots humanoïdes
-Ce thème est traité dans Le Robot qui vivait sa vie et dans Le Naufragé des étoiles.
-L'exploration spatiale
-Ce thème apparaît dans …Et les Martiens invitèrent les hommes.
-La contamination radioactive de la Terre
-Ce thème est au cœur du roman La Voûte invisible. Cette Voûte invisible est un immense champ de force hémisphérique qui met toute une région en quarantaine pour protéger le reste du territoire. En effet, au centre de cette région (une partie notable de la Bretagne, en fait), s'est produit un accident nucléaire, l'explosion d'une centrale, et Philippe Ébly, par analogie avec les compartiments étanches d'un sous-marin que l'on ferme pour sauver le navire s'il se produit une voie d'eau, a imaginé ce dispositif qui isole définitivement la partie contaminée du territoire.
-Les pouvoirs mentaux
-Rudy, la créature extraterrestre dans Le Naufragé des étoiles et les martiens dans …Et les Martiens invitèrent les hommes disposent de pouvoirs mentaux. Pour Rudy, c'est l'accord des ondes Alpha qui lui permet de ressentir des émotions chez d'autres personnes et, éventuellement, de les influencer. Pour les martiens, c'est la consommation de « crô », un fruit martien, qui les rend télépathes. À noter que cela fonctionne également avec les autres personnes, dont les héros, quand ils en consomment.
-L'informatique et les mondes virtuels et/ou parallèles
-Ce thème est traité dans L'Ordinateur qui semait le désordre, roman qui se déroule dans un monde parallèle géré par ordinateur.
-Les mutants
-Ce thème apparaît dans Le Matin des dinosaures via les personnages d'Aïtor et d'Alana. Dans Les Parias de l'an 2187, l'on apprend que le peuple des Iquits sont les descendants d'Aïtor et d'Alana.
-Autres thématiques
-Trois romans se distinguent des autres par le fait que la science-fiction n'y a pas ou très peu de place : 
+Le titane colloïdal : il accélère l'écoulement du temps dans Le Matin des dinosaures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les robots humanoïdes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce thème est traité dans Le Robot qui vivait sa vie et dans Le Naufragé des étoiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L'exploration spatiale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce thème apparaît dans …Et les Martiens invitèrent les hommes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>La contamination radioactive de la Terre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce thème est au cœur du roman La Voûte invisible. Cette Voûte invisible est un immense champ de force hémisphérique qui met toute une région en quarantaine pour protéger le reste du territoire. En effet, au centre de cette région (une partie notable de la Bretagne, en fait), s'est produit un accident nucléaire, l'explosion d'une centrale, et Philippe Ébly, par analogie avec les compartiments étanches d'un sous-marin que l'on ferme pour sauver le navire s'il se produit une voie d'eau, a imaginé ce dispositif qui isole définitivement la partie contaminée du territoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Les pouvoirs mentaux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rudy, la créature extraterrestre dans Le Naufragé des étoiles et les martiens dans …Et les Martiens invitèrent les hommes disposent de pouvoirs mentaux. Pour Rudy, c'est l'accord des ondes Alpha qui lui permet de ressentir des émotions chez d'autres personnes et, éventuellement, de les influencer. Pour les martiens, c'est la consommation de « crô », un fruit martien, qui les rend télépathes. À noter que cela fonctionne également avec les autres personnes, dont les héros, quand ils en consomment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L'informatique et les mondes virtuels et/ou parallèles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce thème est traité dans L'Ordinateur qui semait le désordre, roman qui se déroule dans un monde parallèle géré par ordinateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Les mutants</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce thème apparaît dans Le Matin des dinosaures via les personnages d'Aïtor et d'Alana. Dans Les Parias de l'an 2187, l'on apprend que le peuple des Iquits sont les descendants d'Aïtor et d'Alana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Les_Conquérants_de_l'impossible</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Conqu%C3%A9rants_de_l%27impossible</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thèmes de la série</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres thématiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois romans se distinguent des autres par le fait que la science-fiction n'y a pas ou très peu de place : 
 Destination Uruapan, le premier volume de la série, traite d'un « monde perdu » au sens de Jules Verne ou d'Arthur Conan Doyle avec son roman Le Monde perdu.
 L'Île surgie de la mer aborde le thème de l'Atlantide.
 La Ville qui n'existait pas se déroule dans une ville secrète, presque complètement coupée du monde, tapie au fond d'un gigantesque volcan éteint.
